--- a/DE_Tests.xlsx
+++ b/DE_Tests.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="c_randomisation" r:id="rId1" sheetId="1"/>
+    <sheet name="population_size" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -15,42 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Function</t>
   </si>
   <si>
-    <t>rastrigin</t>
+    <t/>
+  </si>
+  <si>
+    <t>population_size = 30</t>
   </si>
   <si>
     <t>Dimensions</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>c_randomisation = dither</t>
+    <t>population_size = 10</t>
   </si>
   <si>
     <t>rozenbrock</t>
   </si>
   <si>
-    <t>hyper-ellipsoid</t>
-  </si>
-  <si>
     <t>Success Ratio</t>
   </si>
   <si>
-    <t>sphere</t>
+    <t>population_size = 100</t>
   </si>
   <si>
     <t>Function Evals</t>
-  </si>
-  <si>
-    <t>c_randomisation = static</t>
-  </si>
-  <si>
-    <t>ackley</t>
   </si>
 </sst>
 </file>
@@ -96,10 +87,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -397,7 +388,7 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1" activeCell="A1"/>
@@ -410,248 +401,87 @@
     <col max="2" collapsed="0" customWidth="true" width="15" min="2"/>
     <col max="5" collapsed="0" customWidth="true" width="15" min="5"/>
     <col max="4" collapsed="0" customWidth="true" width="15" min="4"/>
-    <col max="7" collapsed="0" width="9.10" min="7"/>
+    <col max="7" collapsed="0" customWidth="true" width="15" min="7"/>
     <col max="6" collapsed="0" customWidth="true" width="15" min="6"/>
+    <col max="9" collapsed="0" width="9.10" min="9"/>
+    <col max="8" collapsed="0" customWidth="true" width="15" min="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c s="2" r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c s="1" r="A1" t="s">
         <v>0</v>
       </c>
-      <c s="2" r="B1" t="s">
+      <c s="1" r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c s="2" r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c s="1" r="D1" t="s"/>
+      <c s="2" r="E1" t="s">
         <v>2</v>
       </c>
-      <c s="1" r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c s="2" r="D1" t="s"/>
-      <c s="1" r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c s="2" r="F1" t="s"/>
-      <c s="2" r="G1" t="s"/>
+      <c s="1" r="F1" t="s"/>
+      <c s="2" r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c s="1" r="H1" t="s"/>
+      <c s="1" r="I1" t="s"/>
     </row>
-    <row r="2" spans="1:7">
-      <c s="2" r="A2" t="s"/>
-      <c s="2" r="B2" t="s"/>
-      <c s="2" r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c s="2" r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c s="2" r="G2" t="s"/>
+    <row r="2" spans="1:9">
+      <c s="1" r="A2" t="s"/>
+      <c s="1" r="B2" t="s"/>
+      <c s="1" r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c s="1" r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c s="1" r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c s="1" r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c s="1" r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c s="1" r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c s="1" r="I2" t="s"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>830.0</v>
+        <v>8410.0</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>844.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
+        <v>11070.0</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.0</v>
       </c>
-      <c r="D4" t="n">
-        <v>609.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>672.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>791.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="F5" t="n">
-        <v>751.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1204.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1026.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>612.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>578.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3773.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3993.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3355.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3476.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5194.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4449.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="D11" t="n">
-        <v>13716.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5445.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2926.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3157.0</v>
+      <c r="H3" t="n">
+        <v>21200.0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/DE_Tests.xlsx
+++ b/DE_Tests.xlsx
@@ -1,68 +1,18 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </bookViews>
-  <sheets>
-    <sheet name="population_size" r:id="rId1" sheetId="1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
-</workbook>
-</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>population_size = 30</t>
-  </si>
-  <si>
-    <t>Dimensions</t>
-  </si>
-  <si>
-    <t>population_size = 10</t>
-  </si>
-  <si>
-    <t>rozenbrock</t>
-  </si>
-  <si>
-    <t>Success Ratio</t>
-  </si>
-  <si>
-    <t>population_size = 100</t>
-  </si>
-  <si>
-    <t>Function Evals</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,12 +35,8 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -381,107 +327,4 @@
   <ns0:objectDefaults/>
   <ns0:extraClrSchemeLst/>
 </ns0:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col max="1" collapsed="0" customWidth="true" width="15" min="1"/>
-    <col max="3" collapsed="0" customWidth="true" width="15" min="3"/>
-    <col max="2" collapsed="0" customWidth="true" width="15" min="2"/>
-    <col max="5" collapsed="0" customWidth="true" width="15" min="5"/>
-    <col max="4" collapsed="0" customWidth="true" width="15" min="4"/>
-    <col max="7" collapsed="0" customWidth="true" width="15" min="7"/>
-    <col max="6" collapsed="0" customWidth="true" width="15" min="6"/>
-    <col max="9" collapsed="0" width="9.10" min="9"/>
-    <col max="8" collapsed="0" customWidth="true" width="15" min="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c s="1" r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c s="2" r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c s="1" r="D1" t="s"/>
-      <c s="2" r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c s="1" r="F1" t="s"/>
-      <c s="2" r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c s="1" r="H1" t="s"/>
-      <c s="1" r="I1" t="s"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c s="1" r="A2" t="s"/>
-      <c s="1" r="B2" t="s"/>
-      <c s="1" r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c s="1" r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c s="1" r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c s="1" r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c s="1" r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c s="1" r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c s="1" r="I2" t="s"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8410.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>11070.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>21200.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-</worksheet>
 </file>
--- a/DE_Tests.xlsx
+++ b/DE_Tests.xlsx
@@ -1,18 +1,83 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </bookViews>
+  <sheets>
+    <sheet name="f" r:id="rId1" sheetId="1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>sphere</t>
+  </si>
+  <si>
+    <t>rozenbrock</t>
+  </si>
+  <si>
+    <t>Success Ratio</t>
+  </si>
+  <si>
+    <t>hyper-ellipsoid</t>
+  </si>
+  <si>
+    <t>f = 0.3</t>
+  </si>
+  <si>
+    <t>Function Evals</t>
+  </si>
+  <si>
+    <t>schwefel-ridge</t>
+  </si>
+  <si>
+    <t>f = 0.7</t>
+  </si>
+  <si>
+    <t>f = 0.5</t>
+  </si>
+  <si>
+    <t>f = 0.9</t>
+  </si>
+  <si>
+    <t>neumaier</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,8 +100,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -327,4 +396,574 @@
   <ns0:objectDefaults/>
   <ns0:extraClrSchemeLst/>
 </ns0:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col max="1" collapsed="0" customWidth="true" width="15" min="1"/>
+    <col max="3" collapsed="0" customWidth="true" width="15" min="3"/>
+    <col max="2" collapsed="0" customWidth="true" width="15" min="2"/>
+    <col max="5" collapsed="0" customWidth="true" width="15" min="5"/>
+    <col max="4" collapsed="0" customWidth="true" width="15" min="4"/>
+    <col max="7" collapsed="0" customWidth="true" width="15" min="7"/>
+    <col max="6" collapsed="0" customWidth="true" width="15" min="6"/>
+    <col max="9" collapsed="0" customWidth="true" width="15" min="9"/>
+    <col max="8" collapsed="0" customWidth="true" width="15" min="8"/>
+    <col max="11" collapsed="0" width="9.10" min="11"/>
+    <col max="10" collapsed="0" customWidth="true" width="15" min="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c s="2" r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c s="2" r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D1" t="s"/>
+      <c s="1" r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c s="2" r="F1" t="s"/>
+      <c s="1" r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c s="2" r="H1" t="s"/>
+      <c s="1" r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c s="2" r="J1" t="s"/>
+      <c s="2" r="K1" t="s"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c s="2" r="A2" t="s"/>
+      <c s="2" r="B2" t="s"/>
+      <c s="2" r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c s="2" r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c s="2" r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c s="2" r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c s="2" r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c s="2" r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c s="2" r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c s="2" r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c s="2" r="K2" t="s"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>242.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>368.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>228.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>557.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>544.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>694.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1002.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>144.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3187.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>960.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1376.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1747.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>688.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>650.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>992.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1738.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>432.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>538.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>685.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1715.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1818.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2577.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4998.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2891.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>946.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1382.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3072.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1682.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1656.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2151.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5728.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2613.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1597.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>13460.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5414.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1102.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1205.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1784.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2964.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+</worksheet>
 </file>
--- a/DE_Tests.xlsx
+++ b/DE_Tests.xlsx
@@ -7,7 +7,12 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="f" r:id="rId1" sheetId="1"/>
+    <sheet name="c" r:id="rId1" sheetId="1"/>
+    <sheet name="f" r:id="rId2" sheetId="2"/>
+    <sheet name="base_vector_selection_scheme" r:id="rId3" sheetId="3"/>
+    <sheet name="huddling" r:id="rId4" sheetId="4"/>
+    <sheet name="f_randomisation" r:id="rId5" sheetId="5"/>
+    <sheet name="mutation_scheme" r:id="rId6" sheetId="6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -15,48 +20,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+  <si>
+    <t>salomon</t>
+  </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Function</t>
+    <t>schwefel</t>
+  </si>
+  <si>
+    <t>rana</t>
   </si>
   <si>
     <t>Dimensions</t>
   </si>
   <si>
+    <t>hyper-ellipsoid</t>
+  </si>
+  <si>
+    <t>base_vector_selection_scheme = permuted</t>
+  </si>
+  <si>
     <t>sphere</t>
   </si>
   <si>
-    <t>rozenbrock</t>
+    <t>f = 0.6</t>
   </si>
   <si>
-    <t>Success Ratio</t>
+    <t>mutation_scheme = de/rand_then_best/1/bin</t>
   </si>
   <si>
-    <t>hyper-ellipsoid</t>
-  </si>
-  <si>
-    <t>f = 0.3</t>
-  </si>
-  <si>
-    <t>Function Evals</t>
-  </si>
-  <si>
-    <t>schwefel-ridge</t>
-  </si>
-  <si>
-    <t>f = 0.7</t>
-  </si>
-  <si>
-    <t>f = 0.5</t>
+    <t>mutation_scheme = de/current_to_best/1/bin</t>
   </si>
   <si>
     <t>f = 0.9</t>
   </si>
   <si>
     <t>neumaier</t>
+  </si>
+  <si>
+    <t>whitley</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>f_randomisation = static</t>
+  </si>
+  <si>
+    <t>mutation_scheme = de/rand/2/bin</t>
+  </si>
+  <si>
+    <t>Success Ratio</t>
+  </si>
+  <si>
+    <t>f_randomisation = dither</t>
+  </si>
+  <si>
+    <t>schwefel-ridge</t>
+  </si>
+  <si>
+    <t>Function Evals</t>
+  </si>
+  <si>
+    <t>rastrigin</t>
+  </si>
+  <si>
+    <t>c = 0.1</t>
+  </si>
+  <si>
+    <t>c = 0.5</t>
+  </si>
+  <si>
+    <t>c = 0.9</t>
+  </si>
+  <si>
+    <t>mutation_scheme = de/best/1/bin</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>mutation_scheme = de/rand/1/bin</t>
+  </si>
+  <si>
+    <t>base_vector_selection_scheme = offset</t>
+  </si>
+  <si>
+    <t>ackley</t>
+  </si>
+  <si>
+    <t>huddling = False</t>
+  </si>
+  <si>
+    <t>f = 0.3</t>
+  </si>
+  <si>
+    <t>rozenbrock</t>
+  </si>
+  <si>
+    <t>huddling = True</t>
+  </si>
+  <si>
+    <t>f_randomisation = jitter</t>
+  </si>
+  <si>
+    <t>mutation_scheme = de/best/2/bin</t>
+  </si>
+  <si>
+    <t>griewangk</t>
+  </si>
+  <si>
+    <t>base_vector_selection_scheme = random</t>
   </si>
 </sst>
 </file>
@@ -102,10 +179,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -403,7 +480,3355 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col max="1" collapsed="0" customWidth="true" width="15" min="1"/>
+    <col max="3" collapsed="0" customWidth="true" width="15" min="3"/>
+    <col max="2" collapsed="0" customWidth="true" width="15" min="2"/>
+    <col max="5" collapsed="0" customWidth="true" width="15" min="5"/>
+    <col max="4" collapsed="0" customWidth="true" width="15" min="4"/>
+    <col max="7" collapsed="0" customWidth="true" width="15" min="7"/>
+    <col max="6" collapsed="0" customWidth="true" width="15" min="6"/>
+    <col max="9" collapsed="0" width="9.10" min="9"/>
+    <col max="8" collapsed="0" customWidth="true" width="15" min="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c s="1" r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c s="1" r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c s="2" r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c s="1" r="D1" t="s"/>
+      <c s="2" r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c s="1" r="F1" t="s"/>
+      <c s="2" r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c s="1" r="H1" t="s"/>
+      <c s="1" r="I1" t="s"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c s="1" r="A2" t="s"/>
+      <c s="1" r="B2" t="s"/>
+      <c s="1" r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="I2" t="s"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>937.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>917.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1527.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1660.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1830.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>527.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>587.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>507.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>587.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>317.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D7" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>763.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>940.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8170.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>913.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6197.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2970.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1620.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F11" t="n">
+        <v>510.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H11" t="n">
+        <v>495.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>727.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>537.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>577.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>587.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2200.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F14" t="n">
+        <v>980.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6475.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7308.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9233.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13792.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>19308.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4142.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4792.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5983.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>18067.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7133.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5158.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>667.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>667.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>275.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4450.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6592.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15317.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11317.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2750.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3725.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10908.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6758.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3800.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4600.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5358.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D26" t="n">
+        <v>15100.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>13658.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col max="1" collapsed="0" customWidth="true" width="15" min="1"/>
+    <col max="3" collapsed="0" customWidth="true" width="15" min="3"/>
+    <col max="2" collapsed="0" customWidth="true" width="15" min="2"/>
+    <col max="5" collapsed="0" customWidth="true" width="15" min="5"/>
+    <col max="4" collapsed="0" customWidth="true" width="15" min="4"/>
+    <col max="7" collapsed="0" customWidth="true" width="15" min="7"/>
+    <col max="6" collapsed="0" customWidth="true" width="15" min="6"/>
+    <col max="9" collapsed="0" width="9.10" min="9"/>
+    <col max="8" collapsed="0" customWidth="true" width="15" min="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c s="1" r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c s="1" r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c s="2" r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c s="1" r="D1" t="s"/>
+      <c s="2" r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c s="1" r="F1" t="s"/>
+      <c s="2" r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c s="1" r="H1" t="s"/>
+      <c s="1" r="I1" t="s"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c s="1" r="A2" t="s"/>
+      <c s="1" r="B2" t="s"/>
+      <c s="1" r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="I2" t="s"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>713.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>850.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1820.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F6" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>350.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F7" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H7" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F8" t="n">
+        <v>545.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>887.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1770.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1150.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F11" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>577.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>517.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>477.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H14" t="n">
+        <v>795.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4117.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8258.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H16" t="n">
+        <v>17400.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2767.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5167.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2508.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5183.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D19" t="n">
+        <v>725.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>317.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>375.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8400.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>16183.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15625.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10158.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1250.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3158.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6492.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2717.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5333.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H26" t="n">
+        <v>16875.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col max="1" collapsed="0" customWidth="true" width="15" min="1"/>
+    <col max="3" collapsed="0" customWidth="true" width="15" min="3"/>
+    <col max="2" collapsed="0" customWidth="true" width="15" min="2"/>
+    <col max="5" collapsed="0" customWidth="true" width="15" min="5"/>
+    <col max="4" collapsed="0" customWidth="true" width="15" min="4"/>
+    <col max="7" collapsed="0" customWidth="true" width="15" min="7"/>
+    <col max="6" collapsed="0" customWidth="true" width="15" min="6"/>
+    <col max="9" collapsed="0" width="9.10" min="9"/>
+    <col max="8" collapsed="0" customWidth="true" width="15" min="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c s="1" r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c s="1" r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c s="2" r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" r="D1" t="s"/>
+      <c s="2" r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c s="1" r="F1" t="s"/>
+      <c s="2" r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c s="1" r="H1" t="s"/>
+      <c s="1" r="I1" t="s"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c s="1" r="A2" t="s"/>
+      <c s="1" r="B2" t="s"/>
+      <c s="1" r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="I2" t="s"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>843.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>903.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>883.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1240.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>497.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>517.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>577.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>357.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D8" t="n">
+        <v>835.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F8" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>930.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2940.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1207.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1093.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1710.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1747.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1620.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D11" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F11" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H11" t="n">
+        <v>480.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>610.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>530.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>643.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>543.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>503.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D14" t="n">
+        <v>610.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F14" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H14" t="n">
+        <v>975.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8708.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8525.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8350.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F16" t="n">
+        <v>16900.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5617.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5550.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5908.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5775.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5050.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D19" t="n">
+        <v>312.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F19" t="n">
+        <v>475.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>217.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14425.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>14675.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H20" t="n">
+        <v>13812.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9825.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9342.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10300.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5462.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4938.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4800.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6758.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6475.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6675.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5433.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5250.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5067.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11708.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15233.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H26" t="n">
+        <v>13262.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col max="1" collapsed="0" customWidth="true" width="15" min="1"/>
+    <col max="3" collapsed="0" customWidth="true" width="15" min="3"/>
+    <col max="2" collapsed="0" customWidth="true" width="15" min="2"/>
+    <col max="5" collapsed="0" customWidth="true" width="15" min="5"/>
+    <col max="4" collapsed="0" customWidth="true" width="15" min="4"/>
+    <col max="7" collapsed="0" width="9.10" min="7"/>
+    <col max="6" collapsed="0" customWidth="true" width="15" min="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c s="1" r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c s="1" r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c s="2" r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c s="1" r="D1" t="s"/>
+      <c s="2" r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c s="1" r="F1" t="s"/>
+      <c s="1" r="G1" t="s"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c s="1" r="A2" t="s"/>
+      <c s="1" r="B2" t="s"/>
+      <c s="1" r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="G2" t="s"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1737.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>943.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1660.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>527.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>403.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D8" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>873.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1028.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1657.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1121.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1930.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D11" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F11" t="n">
+        <v>280.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>597.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>603.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D14" t="n">
+        <v>698.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F14" t="n">
+        <v>930.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4038.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9075.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5667.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2460.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6392.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2382.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5500.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13025.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>16900.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9350.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>17017.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5062.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3050.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8092.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2382.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6058.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D26" t="n">
+        <v>12323.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F26" t="n">
+        <v>14150.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col max="1" collapsed="0" customWidth="true" width="15" min="1"/>
+    <col max="3" collapsed="0" customWidth="true" width="15" min="3"/>
+    <col max="2" collapsed="0" customWidth="true" width="15" min="2"/>
+    <col max="5" collapsed="0" customWidth="true" width="15" min="5"/>
+    <col max="4" collapsed="0" customWidth="true" width="15" min="4"/>
+    <col max="7" collapsed="0" customWidth="true" width="15" min="7"/>
+    <col max="6" collapsed="0" customWidth="true" width="15" min="6"/>
+    <col max="9" collapsed="0" width="9.10" min="9"/>
+    <col max="8" collapsed="0" customWidth="true" width="15" min="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c s="1" r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c s="1" r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c s="2" r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c s="1" r="D1" t="s"/>
+      <c s="2" r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c s="1" r="F1" t="s"/>
+      <c s="2" r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c s="1" r="H1" t="s"/>
+      <c s="1" r="I1" t="s"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c s="1" r="A2" t="s"/>
+      <c s="1" r="B2" t="s"/>
+      <c s="1" r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="I2" t="s"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>980.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>883.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>870.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1350.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1670.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>583.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>627.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>617.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>357.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>417.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>747.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>723.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>733.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1317.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1203.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1277.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1570.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1450.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F11" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H11" t="n">
+        <v>495.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>597.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>507.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>527.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>573.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>543.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F14" t="n">
+        <v>930.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>737.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9767.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8975.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9892.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6517.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6025.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6367.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6433.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5550.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5783.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D19" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>317.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11925.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>14525.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>16550.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10833.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>11183.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16558.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3725.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4800.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7750.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6767.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8442.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6717.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5017.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6175.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>12867.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15625.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>16450.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1" activeCell="A1"/>
@@ -420,550 +3845,1152 @@
     <col max="6" collapsed="0" customWidth="true" width="15" min="6"/>
     <col max="9" collapsed="0" customWidth="true" width="15" min="9"/>
     <col max="8" collapsed="0" customWidth="true" width="15" min="8"/>
-    <col max="11" collapsed="0" width="9.10" min="11"/>
+    <col max="11" collapsed="0" customWidth="true" width="15" min="11"/>
     <col max="10" collapsed="0" customWidth="true" width="15" min="10"/>
+    <col max="13" collapsed="0" customWidth="true" width="15" min="13"/>
+    <col max="12" collapsed="0" customWidth="true" width="15" min="12"/>
+    <col max="15" collapsed="0" width="9.10" min="15"/>
+    <col max="14" collapsed="0" customWidth="true" width="15" min="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c s="2" r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c s="2" r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c s="1" r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D1" t="s"/>
-      <c s="1" r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c s="2" r="F1" t="s"/>
-      <c s="1" r="G1" t="s">
+    <row r="1" spans="1:15">
+      <c s="1" r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c s="1" r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c s="2" r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c s="1" r="D1" t="s"/>
+      <c s="2" r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c s="1" r="F1" t="s"/>
+      <c s="2" r="G1" t="s">
         <v>10</v>
       </c>
-      <c s="2" r="H1" t="s"/>
-      <c s="1" r="I1" t="s">
+      <c s="1" r="H1" t="s"/>
+      <c s="2" r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c s="1" r="J1" t="s"/>
+      <c s="2" r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c s="1" r="L1" t="s"/>
+      <c s="2" r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c s="1" r="N1" t="s"/>
+      <c s="1" r="O1" t="s"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c s="1" r="A2" t="s"/>
+      <c s="1" r="B2" t="s"/>
+      <c s="1" r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" r="O2" t="s"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>893.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F3" t="n">
+        <v>570.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>627.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>757.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>717.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1250.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F4" t="n">
+        <v>770.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3420.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2360.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>537.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>407.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>493.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>480.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c s="2" r="J1" t="s"/>
-      <c s="2" r="K1" t="s"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c s="2" r="A2" t="s"/>
-      <c s="2" r="B2" t="s"/>
-      <c s="2" r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c s="2" r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c s="2" r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c s="2" r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c s="2" r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c s="2" r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c s="2" r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c s="2" r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c s="2" r="K2" t="s"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>193.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>191.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>191.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>242.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>315.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>315.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>368.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>218.0</v>
+        <v>400.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0</v>
+        <v>280.0</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
       </c>
       <c r="H6" t="n">
-        <v>170.0</v>
+        <v>263.0</v>
       </c>
       <c r="I6" t="n">
         <v>1.0</v>
       </c>
       <c r="J6" t="n">
-        <v>228.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>297.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>297.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>186.0</v>
+        <v>33.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F7" t="n">
-        <v>140.0</v>
+        <v>100.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>168.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
       </c>
       <c r="I7" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J7" t="n">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>85.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
       </c>
       <c r="D8" t="n">
-        <v>557.0</v>
+        <v>673.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F8" t="n">
-        <v>544.0</v>
+        <v>580.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H8" t="n">
-        <v>694.0</v>
+        <v>1090.0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J8" t="n">
-        <v>1002.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>1145.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>580.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="N8" t="n">
+        <v>570.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
       </c>
       <c r="D9" t="n">
-        <v>208.0</v>
+        <v>1283.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>138.0</v>
+        <v>830.0</v>
       </c>
       <c r="G9" t="n">
         <v>1.0</v>
       </c>
       <c r="H9" t="n">
-        <v>131.0</v>
+        <v>1573.0</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>144.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>1740.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1395.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>880.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D10" t="n">
-        <v>3187.0</v>
+        <v>2675.0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F10" t="n">
-        <v>960.0</v>
+        <v>870.0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>1376.0</v>
+        <v>1750.0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J10" t="n">
-        <v>1747.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>2930.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1090.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D11" t="n">
-        <v>688.0</v>
+        <v>400.0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F11" t="n">
-        <v>650.0</v>
+        <v>300.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>992.0</v>
+        <v>290.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J11" t="n">
-        <v>1738.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>760.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="L11" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="N11" t="n">
+        <v>435.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
       </c>
       <c r="D12" t="n">
-        <v>432.0</v>
+        <v>597.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
       </c>
       <c r="F12" t="n">
-        <v>406.0</v>
+        <v>413.0</v>
       </c>
       <c r="G12" t="n">
         <v>1.0</v>
       </c>
       <c r="H12" t="n">
-        <v>538.0</v>
+        <v>423.0</v>
       </c>
       <c r="I12" t="n">
         <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>685.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>473.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1715.0</v>
+        <v>540.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1818.0</v>
+        <v>427.0</v>
       </c>
       <c r="G13" t="n">
         <v>1.0</v>
       </c>
       <c r="H13" t="n">
-        <v>2577.0</v>
+        <v>427.0</v>
       </c>
       <c r="I13" t="n">
         <v>1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>4998.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>377.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>420.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.69999999999999996</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D14" t="n">
-        <v>2891.0</v>
+        <v>910.0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F14" t="n">
-        <v>946.0</v>
+        <v>580.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H14" t="n">
-        <v>1382.0</v>
+        <v>580.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J14" t="n">
-        <v>3072.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>620.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="N14" t="n">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.90000000000000002</v>
+        <v>1.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1682.0</v>
+        <v>9625.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1656.0</v>
+        <v>4492.0</v>
       </c>
       <c r="G15" t="n">
         <v>1.0</v>
       </c>
       <c r="H15" t="n">
-        <v>2151.0</v>
+        <v>4808.0</v>
       </c>
       <c r="I15" t="n">
         <v>1.0</v>
       </c>
       <c r="J15" t="n">
-        <v>5728.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>5175.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1867.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6425.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2613.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1597.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>13460.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
       </c>
       <c r="I16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5414.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6375.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3083.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3142.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3583.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1267.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4108.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6392.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3383.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3167.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3450.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1233.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4233.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1102.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1205.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1784.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2964.0</v>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D19" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H19" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>542.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L19" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="N19" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16708.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>18083.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9925.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7825.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16967.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6500.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>18883.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>18825.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9667.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6175.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="J23" t="n">
+        <v>12475.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8550.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3725.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4692.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5342.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1808.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4792.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2825.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2875.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3292.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1233.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3942.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9275.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6850.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="J26" t="n">
+        <v>19538.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6475.0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/DE_Tests.xlsx
+++ b/DE_Tests.xlsx
@@ -554,19 +554,19 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>937.0</v>
+        <v>887.0</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>917.0</v>
+        <v>967.0</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" t="n">
-        <v>900.0</v>
+        <v>897.0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -577,22 +577,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D4" t="n">
-        <v>1527.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.66700000000000004</v>
       </c>
       <c r="F4" t="n">
-        <v>1660.0</v>
+        <v>1525.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H4" t="n">
-        <v>1830.0</v>
+        <v>1175.0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -606,19 +606,19 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>527.0</v>
+        <v>597.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>587.0</v>
+        <v>597.0</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>507.0</v>
+        <v>567.0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -632,19 +632,19 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>587.0</v>
+        <v>573.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>503.0</v>
+        <v>437.0</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
       </c>
       <c r="H6" t="n">
-        <v>317.0</v>
+        <v>393.0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -655,22 +655,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>170.0</v>
+        <v>47.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>53.0</v>
+        <v>43.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
       </c>
       <c r="H7" t="n">
-        <v>67.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -681,22 +681,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D8" t="n">
-        <v>640.0</v>
+        <v>565.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>763.0</v>
+        <v>637.0</v>
       </c>
       <c r="G8" t="n">
         <v>1.0</v>
       </c>
       <c r="H8" t="n">
-        <v>940.0</v>
+        <v>867.0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -710,19 +710,19 @@
         <v>1.0</v>
       </c>
       <c r="D9" t="n">
-        <v>8170.0</v>
+        <v>7157.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1930.0</v>
+        <v>1333.0</v>
       </c>
       <c r="G9" t="n">
         <v>1.0</v>
       </c>
       <c r="H9" t="n">
-        <v>913.0</v>
+        <v>887.0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -733,10 +733,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D10" t="n">
-        <v>6197.0</v>
+        <v>7700.0</v>
       </c>
       <c r="E10" t="n">
         <v>0.33300000000000002</v>
@@ -748,7 +748,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>1620.0</v>
+        <v>1570.0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -759,22 +759,22 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D11" t="n">
-        <v>373.0</v>
+        <v>320.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.33300000000000002</v>
+        <v>1.0</v>
       </c>
       <c r="F11" t="n">
-        <v>510.0</v>
+        <v>460.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>495.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -788,19 +788,19 @@
         <v>1.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1293.0</v>
+        <v>1267.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
       </c>
       <c r="F12" t="n">
-        <v>727.0</v>
+        <v>777.0</v>
       </c>
       <c r="G12" t="n">
         <v>1.0</v>
       </c>
       <c r="H12" t="n">
-        <v>537.0</v>
+        <v>547.0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -814,19 +814,19 @@
         <v>1.0</v>
       </c>
       <c r="D13" t="n">
-        <v>577.0</v>
+        <v>480.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
       </c>
       <c r="F13" t="n">
-        <v>600.0</v>
+        <v>500.0</v>
       </c>
       <c r="G13" t="n">
         <v>1.0</v>
       </c>
       <c r="H13" t="n">
-        <v>587.0</v>
+        <v>557.0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -837,22 +837,22 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.33300000000000002</v>
+        <v>1.0</v>
       </c>
       <c r="D14" t="n">
-        <v>2200.0</v>
+        <v>2363.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F14" t="n">
-        <v>980.0</v>
+        <v>1040.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H14" t="n">
-        <v>800.0</v>
+        <v>1340.0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -872,13 +872,13 @@
         <v>1.0</v>
       </c>
       <c r="F15" t="n">
-        <v>7308.0</v>
+        <v>7000.0</v>
       </c>
       <c r="G15" t="n">
         <v>1.0</v>
       </c>
       <c r="H15" t="n">
-        <v>9233.0</v>
+        <v>8892.0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -892,13 +892,13 @@
         <v>1.0</v>
       </c>
       <c r="D16" t="n">
-        <v>13792.0</v>
+        <v>13333.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
       </c>
       <c r="F16" t="n">
-        <v>19308.0</v>
+        <v>18925.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -918,19 +918,19 @@
         <v>1.0</v>
       </c>
       <c r="D17" t="n">
-        <v>4142.0</v>
+        <v>4367.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
       </c>
       <c r="F17" t="n">
-        <v>4792.0</v>
+        <v>4717.0</v>
       </c>
       <c r="G17" t="n">
         <v>1.0</v>
       </c>
       <c r="H17" t="n">
-        <v>5983.0</v>
+        <v>5667.0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -944,19 +944,19 @@
         <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>18067.0</v>
+        <v>18233.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
       </c>
       <c r="F18" t="n">
-        <v>7133.0</v>
+        <v>7092.0</v>
       </c>
       <c r="G18" t="n">
         <v>1.0</v>
       </c>
       <c r="H18" t="n">
-        <v>5158.0</v>
+        <v>5767.0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -970,19 +970,19 @@
         <v>1.0</v>
       </c>
       <c r="D19" t="n">
-        <v>667.0</v>
+        <v>717.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
       </c>
       <c r="F19" t="n">
-        <v>667.0</v>
+        <v>625.0</v>
       </c>
       <c r="G19" t="n">
         <v>1.0</v>
       </c>
       <c r="H19" t="n">
-        <v>275.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -996,19 +996,19 @@
         <v>1.0</v>
       </c>
       <c r="D20" t="n">
-        <v>4450.0</v>
+        <v>4558.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
       </c>
       <c r="F20" t="n">
-        <v>6592.0</v>
+        <v>7283.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H20" t="n">
-        <v>15317.0</v>
+        <v>11175.0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1034,7 +1034,7 @@
         <v>1.0</v>
       </c>
       <c r="H21" t="n">
-        <v>11317.0</v>
+        <v>10508.0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1074,19 +1074,19 @@
         <v>1.0</v>
       </c>
       <c r="D23" t="n">
-        <v>2750.0</v>
+        <v>2925.0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3538.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H23" t="n">
-        <v>3725.0</v>
+        <v>5175.0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1106,13 +1106,13 @@
         <v>1.0</v>
       </c>
       <c r="F24" t="n">
-        <v>10908.0</v>
+        <v>11375.0</v>
       </c>
       <c r="G24" t="n">
         <v>1.0</v>
       </c>
       <c r="H24" t="n">
-        <v>6758.0</v>
+        <v>6725.0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1126,19 +1126,19 @@
         <v>1.0</v>
       </c>
       <c r="D25" t="n">
-        <v>3800.0</v>
+        <v>3858.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
       </c>
       <c r="F25" t="n">
-        <v>4600.0</v>
+        <v>4683.0</v>
       </c>
       <c r="G25" t="n">
         <v>1.0</v>
       </c>
       <c r="H25" t="n">
-        <v>5358.0</v>
+        <v>5650.0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1152,7 +1152,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="D26" t="n">
-        <v>15100.0</v>
+        <v>18300.0</v>
       </c>
       <c r="E26" t="n">
         <v>0.0</v>
@@ -1161,10 +1161,10 @@
         <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H26" t="n">
-        <v>13658.0</v>
+        <v>11050.0</v>
       </c>
     </row>
   </sheetData>
@@ -1258,16 +1258,16 @@
         <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F3" t="n">
-        <v>713.0</v>
+        <v>660.0</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" t="n">
-        <v>850.0</v>
+        <v>883.0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1290,10 +1290,10 @@
         <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H4" t="n">
-        <v>1820.0</v>
+        <v>1775.0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1304,22 +1304,22 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D5" t="n">
+        <v>240.0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0</v>
+        <v>345.0</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>600.0</v>
+        <v>540.0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1336,16 +1336,16 @@
         <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>275.0</v>
+        <v>243.0</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
       </c>
       <c r="H6" t="n">
-        <v>350.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1356,22 +1356,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D7" t="n">
-        <v>45.0</v>
+        <v>20.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>55.0</v>
+        <v>157.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="H7" t="n">
-        <v>35.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1382,22 +1382,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D8" t="n">
+        <v>480.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="F8" t="n">
-        <v>545.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H8" t="n">
-        <v>887.0</v>
+        <v>965.0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1423,7 +1423,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1770.0</v>
+        <v>1253.0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1440,16 +1440,16 @@
         <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1075.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1150.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1460,22 +1460,22 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D11" t="n">
+        <v>130.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F11" t="n">
-        <v>335.0</v>
+        <v>190.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
+        <v>1.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>490.0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1495,13 +1495,13 @@
         <v>1.0</v>
       </c>
       <c r="F12" t="n">
-        <v>387.0</v>
+        <v>393.0</v>
       </c>
       <c r="G12" t="n">
         <v>1.0</v>
       </c>
       <c r="H12" t="n">
-        <v>577.0</v>
+        <v>630.0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1521,13 +1521,13 @@
         <v>1.0</v>
       </c>
       <c r="F13" t="n">
-        <v>377.0</v>
+        <v>360.0</v>
       </c>
       <c r="G13" t="n">
         <v>1.0</v>
       </c>
       <c r="H13" t="n">
-        <v>517.0</v>
+        <v>577.0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1544,16 +1544,16 @@
         <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F14" t="n">
-        <v>477.0</v>
+        <v>570.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.66700000000000004</v>
       </c>
       <c r="H14" t="n">
-        <v>795.0</v>
+        <v>860.0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1573,13 +1573,13 @@
         <v>1.0</v>
       </c>
       <c r="F15" t="n">
-        <v>4117.0</v>
+        <v>4017.0</v>
       </c>
       <c r="G15" t="n">
         <v>1.0</v>
       </c>
       <c r="H15" t="n">
-        <v>8258.0</v>
+        <v>8842.0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1605,7 +1605,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="H16" t="n">
-        <v>17400.0</v>
+        <v>19250.0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1625,13 +1625,13 @@
         <v>1.0</v>
       </c>
       <c r="F17" t="n">
-        <v>2767.0</v>
+        <v>2567.0</v>
       </c>
       <c r="G17" t="n">
         <v>1.0</v>
       </c>
       <c r="H17" t="n">
-        <v>5167.0</v>
+        <v>5675.0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1651,13 +1651,13 @@
         <v>1.0</v>
       </c>
       <c r="F18" t="n">
-        <v>2508.0</v>
+        <v>2592.0</v>
       </c>
       <c r="G18" t="n">
         <v>1.0</v>
       </c>
       <c r="H18" t="n">
-        <v>5183.0</v>
+        <v>5592.0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1668,22 +1668,22 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D19" t="n">
-        <v>725.0</v>
+        <v>625.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
       </c>
       <c r="F19" t="n">
-        <v>317.0</v>
+        <v>767.0</v>
       </c>
       <c r="G19" t="n">
         <v>1.0</v>
       </c>
       <c r="H19" t="n">
-        <v>375.0</v>
+        <v>442.0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1700,16 +1700,16 @@
         <v>26</v>
       </c>
       <c r="E20" t="n">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F20" t="n">
-        <v>8400.0</v>
+        <v>8975.0</v>
       </c>
       <c r="G20" t="n">
         <v>1.0</v>
       </c>
       <c r="H20" t="n">
-        <v>16183.0</v>
+        <v>13758.0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1729,13 +1729,13 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="F21" t="n">
-        <v>15625.0</v>
+        <v>5075.0</v>
       </c>
       <c r="G21" t="n">
         <v>1.0</v>
       </c>
       <c r="H21" t="n">
-        <v>10158.0</v>
+        <v>10358.0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1772,22 +1772,22 @@
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1250.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3375.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>26</v>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4550.0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1807,13 +1807,13 @@
         <v>1.0</v>
       </c>
       <c r="F24" t="n">
-        <v>3158.0</v>
+        <v>3292.0</v>
       </c>
       <c r="G24" t="n">
         <v>1.0</v>
       </c>
       <c r="H24" t="n">
-        <v>6492.0</v>
+        <v>6700.0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1833,13 +1833,13 @@
         <v>1.0</v>
       </c>
       <c r="F25" t="n">
-        <v>2717.0</v>
+        <v>2508.0</v>
       </c>
       <c r="G25" t="n">
         <v>1.0</v>
       </c>
       <c r="H25" t="n">
-        <v>5333.0</v>
+        <v>5200.0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1865,7 +1865,7 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="H26" t="n">
-        <v>16875.0</v>
+        <v>15188.0</v>
       </c>
     </row>
   </sheetData>
@@ -1956,19 +1956,19 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>843.0</v>
+        <v>923.0</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>903.0</v>
+        <v>863.0</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" t="n">
-        <v>883.0</v>
+        <v>937.0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1979,22 +1979,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D4" t="n">
-        <v>1000.0</v>
+        <v>1310.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1730.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H4" t="n">
-        <v>1240.0</v>
+        <v>1425.0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2008,19 +2008,19 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>497.0</v>
+        <v>503.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>517.0</v>
+        <v>547.0</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>577.0</v>
+        <v>597.0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2034,13 +2034,13 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>353.0</v>
+        <v>300.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>387.0</v>
+        <v>407.0</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
@@ -2060,19 +2060,19 @@
         <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>47.0</v>
+        <v>57.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F7" t="n">
-        <v>53.0</v>
+        <v>135.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="H7" t="n">
-        <v>20.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2083,22 +2083,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="D8" t="n">
-        <v>835.0</v>
+        <v>830.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>785.0</v>
+        <v>690.0</v>
       </c>
       <c r="G8" t="n">
         <v>1.0</v>
       </c>
       <c r="H8" t="n">
-        <v>930.0</v>
+        <v>683.0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2112,19 +2112,19 @@
         <v>1.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2940.0</v>
+        <v>2033.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1207.0</v>
+        <v>923.0</v>
       </c>
       <c r="G9" t="n">
         <v>1.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1093.0</v>
+        <v>943.0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2135,22 +2135,22 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1710.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F10" t="n">
-        <v>1747.0</v>
+        <v>1030.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="H10" t="n">
-        <v>1620.0</v>
+        <v>1627.0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2164,19 +2164,19 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="D11" t="n">
-        <v>400.0</v>
+        <v>500.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="F11" t="n">
-        <v>430.0</v>
+        <v>367.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.33300000000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>480.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2190,19 +2190,19 @@
         <v>1.0</v>
       </c>
       <c r="D12" t="n">
-        <v>610.0</v>
+        <v>503.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
       </c>
       <c r="F12" t="n">
-        <v>530.0</v>
+        <v>500.0</v>
       </c>
       <c r="G12" t="n">
         <v>1.0</v>
       </c>
       <c r="H12" t="n">
-        <v>643.0</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2216,19 +2216,19 @@
         <v>1.0</v>
       </c>
       <c r="D13" t="n">
-        <v>480.0</v>
+        <v>537.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
       </c>
       <c r="F13" t="n">
-        <v>543.0</v>
+        <v>583.0</v>
       </c>
       <c r="G13" t="n">
         <v>1.0</v>
       </c>
       <c r="H13" t="n">
-        <v>503.0</v>
+        <v>547.0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2239,22 +2239,22 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D14" t="n">
-        <v>610.0</v>
+        <v>765.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F14" t="n">
-        <v>680.0</v>
+        <v>1090.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H14" t="n">
-        <v>975.0</v>
+        <v>660.0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2268,19 +2268,19 @@
         <v>1.0</v>
       </c>
       <c r="D15" t="n">
-        <v>8708.0</v>
+        <v>8458.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
       </c>
       <c r="F15" t="n">
-        <v>8525.0</v>
+        <v>8558.0</v>
       </c>
       <c r="G15" t="n">
         <v>1.0</v>
       </c>
       <c r="H15" t="n">
-        <v>8350.0</v>
+        <v>8542.0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2300,7 +2300,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="F16" t="n">
-        <v>16900.0</v>
+        <v>21550.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -2320,19 +2320,19 @@
         <v>1.0</v>
       </c>
       <c r="D17" t="n">
-        <v>5617.0</v>
+        <v>5725.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
       </c>
       <c r="F17" t="n">
-        <v>5550.0</v>
+        <v>5917.0</v>
       </c>
       <c r="G17" t="n">
         <v>1.0</v>
       </c>
       <c r="H17" t="n">
-        <v>5908.0</v>
+        <v>5583.0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2346,19 +2346,19 @@
         <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>5775.0</v>
+        <v>5108.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
       </c>
       <c r="F18" t="n">
-        <v>5400.0</v>
+        <v>5117.0</v>
       </c>
       <c r="G18" t="n">
         <v>1.0</v>
       </c>
       <c r="H18" t="n">
-        <v>5050.0</v>
+        <v>5058.0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2369,22 +2369,22 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="D19" t="n">
-        <v>312.0</v>
+        <v>492.0</v>
       </c>
       <c r="E19" t="n">
         <v>0.66700000000000004</v>
       </c>
       <c r="F19" t="n">
-        <v>475.0</v>
+        <v>300.0</v>
       </c>
       <c r="G19" t="n">
         <v>1.0</v>
       </c>
       <c r="H19" t="n">
-        <v>217.0</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2398,19 +2398,19 @@
         <v>1.0</v>
       </c>
       <c r="D20" t="n">
-        <v>14425.0</v>
+        <v>13925.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
       </c>
       <c r="F20" t="n">
-        <v>14675.0</v>
+        <v>13925.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="H20" t="n">
-        <v>13812.0</v>
+        <v>13408.0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2424,19 +2424,19 @@
         <v>1.0</v>
       </c>
       <c r="D21" t="n">
-        <v>9825.0</v>
+        <v>10450.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
       </c>
       <c r="F21" t="n">
-        <v>9342.0</v>
+        <v>10817.0</v>
       </c>
       <c r="G21" t="n">
         <v>1.0</v>
       </c>
       <c r="H21" t="n">
-        <v>10300.0</v>
+        <v>9192.0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2473,22 +2473,22 @@
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D23" t="n">
-        <v>5462.0</v>
+        <v>4975.0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F23" t="n">
-        <v>4938.0</v>
+        <v>4775.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.33300000000000002</v>
+        <v>1.0</v>
       </c>
       <c r="H23" t="n">
-        <v>4800.0</v>
+        <v>4708.0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2502,19 +2502,19 @@
         <v>1.0</v>
       </c>
       <c r="D24" t="n">
-        <v>6758.0</v>
+        <v>6675.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
       </c>
       <c r="F24" t="n">
-        <v>6475.0</v>
+        <v>6692.0</v>
       </c>
       <c r="G24" t="n">
         <v>1.0</v>
       </c>
       <c r="H24" t="n">
-        <v>6675.0</v>
+        <v>6583.0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2534,13 +2534,13 @@
         <v>1.0</v>
       </c>
       <c r="F25" t="n">
-        <v>5250.0</v>
+        <v>5233.0</v>
       </c>
       <c r="G25" t="n">
         <v>1.0</v>
       </c>
       <c r="H25" t="n">
-        <v>5067.0</v>
+        <v>5408.0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2551,22 +2551,22 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D26" t="n">
-        <v>11708.0</v>
+        <v>12162.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
       </c>
       <c r="F26" t="n">
-        <v>15233.0</v>
+        <v>12142.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H26" t="n">
-        <v>13262.0</v>
+        <v>10700.0</v>
       </c>
     </row>
   </sheetData>
@@ -2645,13 +2645,13 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1737.0</v>
+        <v>571.0</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>943.0</v>
+        <v>1010.0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2662,16 +2662,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1011.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1660.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2685,13 +2685,13 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>340.0</v>
+        <v>366.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>527.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2711,7 +2711,7 @@
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>403.0</v>
+        <v>413.0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2722,16 +2722,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D7" t="n">
-        <v>87.0</v>
+        <v>70.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>67.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2742,16 +2742,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="D8" t="n">
-        <v>554.0</v>
+        <v>692.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>873.0</v>
+        <v>997.0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2765,13 +2765,13 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="D9" t="n">
-        <v>1028.0</v>
+        <v>1302.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1657.0</v>
+        <v>1660.0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2785,13 +2785,13 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="D10" t="n">
-        <v>1121.0</v>
+        <v>2480.0</v>
       </c>
       <c r="E10" t="n">
         <v>0.33300000000000002</v>
       </c>
       <c r="F10" t="n">
-        <v>1930.0</v>
+        <v>1390.0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2805,13 +2805,13 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="D11" t="n">
-        <v>334.0</v>
+        <v>434.0</v>
       </c>
       <c r="E11" t="n">
         <v>0.33300000000000002</v>
       </c>
       <c r="F11" t="n">
-        <v>280.0</v>
+        <v>410.0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2825,13 +2825,13 @@
         <v>1.0</v>
       </c>
       <c r="D12" t="n">
-        <v>362.0</v>
+        <v>747.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
       </c>
       <c r="F12" t="n">
-        <v>597.0</v>
+        <v>503.0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2845,13 +2845,13 @@
         <v>1.0</v>
       </c>
       <c r="D13" t="n">
-        <v>377.0</v>
+        <v>366.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
       </c>
       <c r="F13" t="n">
-        <v>603.0</v>
+        <v>543.0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2862,16 +2862,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D14" t="n">
-        <v>698.0</v>
+        <v>813.0</v>
       </c>
       <c r="E14" t="n">
         <v>0.66700000000000004</v>
       </c>
       <c r="F14" t="n">
-        <v>930.0</v>
+        <v>975.0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2885,13 +2885,13 @@
         <v>1.0</v>
       </c>
       <c r="D15" t="n">
-        <v>4038.0</v>
+        <v>3726.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
       </c>
       <c r="F15" t="n">
-        <v>9075.0</v>
+        <v>10050.0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2902,16 +2902,16 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5667.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24450.0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2925,13 +2925,13 @@
         <v>1.0</v>
       </c>
       <c r="D17" t="n">
-        <v>2460.0</v>
+        <v>2443.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
       </c>
       <c r="F17" t="n">
-        <v>6392.0</v>
+        <v>6658.0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2945,13 +2945,13 @@
         <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2382.0</v>
+        <v>2339.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
       </c>
       <c r="F18" t="n">
-        <v>5500.0</v>
+        <v>6350.0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2965,13 +2965,13 @@
         <v>1.0</v>
       </c>
       <c r="D19" t="n">
-        <v>337.0</v>
+        <v>493.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
       </c>
       <c r="F19" t="n">
-        <v>600.0</v>
+        <v>308.0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2982,16 +2982,16 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="D20" t="n">
-        <v>13025.0</v>
+        <v>11014.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
       </c>
       <c r="F20" t="n">
-        <v>16900.0</v>
+        <v>15867.0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3005,13 +3005,13 @@
         <v>1.0</v>
       </c>
       <c r="D21" t="n">
-        <v>9350.0</v>
+        <v>9038.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
       </c>
       <c r="F21" t="n">
-        <v>17017.0</v>
+        <v>17133.0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3042,16 +3042,16 @@
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4744.0</v>
       </c>
       <c r="E23" t="n">
         <v>0.66700000000000004</v>
       </c>
       <c r="F23" t="n">
-        <v>5062.0</v>
+        <v>5375.0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3065,13 +3065,13 @@
         <v>1.0</v>
       </c>
       <c r="D24" t="n">
-        <v>3050.0</v>
+        <v>3093.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
       </c>
       <c r="F24" t="n">
-        <v>8092.0</v>
+        <v>8033.0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3085,13 +3085,13 @@
         <v>1.0</v>
       </c>
       <c r="D25" t="n">
-        <v>2382.0</v>
+        <v>2434.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
       </c>
       <c r="F25" t="n">
-        <v>6058.0</v>
+        <v>5867.0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3102,16 +3102,16 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D26" t="n">
-        <v>12323.0</v>
+        <v>12609.0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F26" t="n">
-        <v>14150.0</v>
+        <v>15438.0</v>
       </c>
     </row>
   </sheetData>
@@ -3201,19 +3201,19 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>980.0</v>
+        <v>883.0</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>883.0</v>
+        <v>867.0</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" t="n">
-        <v>870.0</v>
+        <v>843.0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3230,16 +3230,16 @@
         <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F4" t="n">
-        <v>1350.0</v>
+        <v>1210.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.33300000000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1670.0</v>
+        <v>1980.0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3259,13 +3259,13 @@
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>627.0</v>
+        <v>610.0</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>617.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3279,19 +3279,19 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>357.0</v>
+        <v>333.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>343.0</v>
+        <v>403.0</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
       </c>
       <c r="H6" t="n">
-        <v>417.0</v>
+        <v>423.0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3302,22 +3302,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.33300000000000002</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>50.0</v>
+        <v>27.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F7" t="n">
-        <v>83.0</v>
+        <v>80.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
       </c>
       <c r="H7" t="n">
-        <v>43.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3331,19 +3331,19 @@
         <v>1.0</v>
       </c>
       <c r="D8" t="n">
-        <v>747.0</v>
+        <v>660.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>723.0</v>
+        <v>803.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H8" t="n">
-        <v>733.0</v>
+        <v>560.0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3357,19 +3357,19 @@
         <v>1.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1317.0</v>
+        <v>1310.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1203.0</v>
+        <v>1123.0</v>
       </c>
       <c r="G9" t="n">
         <v>1.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1277.0</v>
+        <v>1293.0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3386,16 +3386,16 @@
         <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1570.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H10" t="n">
-        <v>1450.0</v>
+        <v>2225.0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3406,22 +3406,22 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D11" t="n">
+        <v>460.0</v>
       </c>
       <c r="E11" t="n">
         <v>0.33300000000000002</v>
       </c>
       <c r="F11" t="n">
-        <v>460.0</v>
+        <v>380.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>495.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3435,19 +3435,19 @@
         <v>1.0</v>
       </c>
       <c r="D12" t="n">
-        <v>597.0</v>
+        <v>633.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
       </c>
       <c r="F12" t="n">
-        <v>507.0</v>
+        <v>620.0</v>
       </c>
       <c r="G12" t="n">
         <v>1.0</v>
       </c>
       <c r="H12" t="n">
-        <v>527.0</v>
+        <v>577.0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3461,19 +3461,19 @@
         <v>1.0</v>
       </c>
       <c r="D13" t="n">
-        <v>483.0</v>
+        <v>590.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
       </c>
       <c r="F13" t="n">
-        <v>573.0</v>
+        <v>507.0</v>
       </c>
       <c r="G13" t="n">
         <v>1.0</v>
       </c>
       <c r="H13" t="n">
-        <v>543.0</v>
+        <v>607.0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3484,22 +3484,22 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
+        <v>1.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>693.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F14" t="n">
-        <v>930.0</v>
+        <v>870.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H14" t="n">
-        <v>737.0</v>
+        <v>1065.0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3513,19 +3513,19 @@
         <v>1.0</v>
       </c>
       <c r="D15" t="n">
-        <v>9767.0</v>
+        <v>9633.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
       </c>
       <c r="F15" t="n">
-        <v>8975.0</v>
+        <v>8608.0</v>
       </c>
       <c r="G15" t="n">
         <v>1.0</v>
       </c>
       <c r="H15" t="n">
-        <v>9892.0</v>
+        <v>9608.0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3542,10 +3542,10 @@
         <v>26</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17675.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -3565,19 +3565,19 @@
         <v>1.0</v>
       </c>
       <c r="D17" t="n">
-        <v>6517.0</v>
+        <v>6342.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
       </c>
       <c r="F17" t="n">
-        <v>6025.0</v>
+        <v>5633.0</v>
       </c>
       <c r="G17" t="n">
         <v>1.0</v>
       </c>
       <c r="H17" t="n">
-        <v>6367.0</v>
+        <v>6400.0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3591,19 +3591,19 @@
         <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>6433.0</v>
+        <v>6300.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
       </c>
       <c r="F18" t="n">
-        <v>5550.0</v>
+        <v>5200.0</v>
       </c>
       <c r="G18" t="n">
         <v>1.0</v>
       </c>
       <c r="H18" t="n">
-        <v>5783.0</v>
+        <v>6242.0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3614,16 +3614,16 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="D19" t="n">
-        <v>275.0</v>
+        <v>242.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
       </c>
       <c r="F19" t="n">
-        <v>225.0</v>
+        <v>483.0</v>
       </c>
       <c r="G19" t="n">
         <v>1.0</v>
@@ -3643,19 +3643,19 @@
         <v>1.0</v>
       </c>
       <c r="D20" t="n">
-        <v>11925.0</v>
+        <v>13400.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
       </c>
       <c r="F20" t="n">
-        <v>14525.0</v>
+        <v>15308.0</v>
       </c>
       <c r="G20" t="n">
         <v>1.0</v>
       </c>
       <c r="H20" t="n">
-        <v>16550.0</v>
+        <v>14075.0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3669,19 +3669,19 @@
         <v>1.0</v>
       </c>
       <c r="D21" t="n">
-        <v>10833.0</v>
+        <v>13367.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
       </c>
       <c r="F21" t="n">
-        <v>11183.0</v>
+        <v>10958.0</v>
       </c>
       <c r="G21" t="n">
         <v>1.0</v>
       </c>
       <c r="H21" t="n">
-        <v>16558.0</v>
+        <v>17867.0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3724,16 +3724,16 @@
         <v>26</v>
       </c>
       <c r="E23" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F23" t="n">
-        <v>3725.0</v>
+        <v>6225.0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4800.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3747,19 +3747,19 @@
         <v>1.0</v>
       </c>
       <c r="D24" t="n">
-        <v>7750.0</v>
+        <v>7842.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
       </c>
       <c r="F24" t="n">
-        <v>6767.0</v>
+        <v>6433.0</v>
       </c>
       <c r="G24" t="n">
         <v>1.0</v>
       </c>
       <c r="H24" t="n">
-        <v>8442.0</v>
+        <v>8242.0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3773,19 +3773,19 @@
         <v>1.0</v>
       </c>
       <c r="D25" t="n">
-        <v>6717.0</v>
+        <v>5817.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
       </c>
       <c r="F25" t="n">
-        <v>5017.0</v>
+        <v>5400.0</v>
       </c>
       <c r="G25" t="n">
         <v>1.0</v>
       </c>
       <c r="H25" t="n">
-        <v>6175.0</v>
+        <v>6208.0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3796,22 +3796,22 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D26" t="n">
-        <v>12867.0</v>
+        <v>12325.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
       </c>
       <c r="F26" t="n">
-        <v>15625.0</v>
+        <v>12083.0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H26" t="n">
-        <v>16450.0</v>
+        <v>16925.0</v>
       </c>
     </row>
   </sheetData>
@@ -3938,37 +3938,37 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>893.0</v>
+        <v>947.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>570.0</v>
+        <v>660.0</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" t="n">
-        <v>627.0</v>
+        <v>673.0</v>
       </c>
       <c r="I3" t="n">
         <v>1.0</v>
       </c>
       <c r="J3" t="n">
-        <v>757.0</v>
+        <v>750.0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="L3" t="n">
-        <v>483.0</v>
+        <v>390.0</v>
       </c>
       <c r="M3" t="n">
         <v>1.0</v>
       </c>
       <c r="N3" t="n">
-        <v>717.0</v>
+        <v>790.0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3979,34 +3979,34 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.33300000000000002</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1250.0</v>
+        <v>1427.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F4" t="n">
-        <v>770.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H4" t="n">
-        <v>3420.0</v>
+        <v>3700.0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3110.0</v>
       </c>
       <c r="K4" t="n">
         <v>0.33300000000000002</v>
       </c>
       <c r="L4" t="n">
-        <v>2360.0</v>
+        <v>3430.0</v>
       </c>
       <c r="M4" t="n">
         <v>0.0</v>
@@ -4026,37 +4026,37 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>537.0</v>
+        <v>657.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0</v>
+        <v>427.0</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>407.0</v>
+        <v>487.0</v>
       </c>
       <c r="I5" t="n">
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>493.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>247.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>480.0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4070,37 +4070,37 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>400.0</v>
+        <v>393.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>280.0</v>
+        <v>260.0</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
       </c>
       <c r="H6" t="n">
-        <v>263.0</v>
+        <v>283.0</v>
       </c>
       <c r="I6" t="n">
         <v>1.0</v>
       </c>
       <c r="J6" t="n">
-        <v>297.0</v>
+        <v>273.0</v>
       </c>
       <c r="K6" t="n">
         <v>1.0</v>
       </c>
       <c r="L6" t="n">
-        <v>150.0</v>
+        <v>173.0</v>
       </c>
       <c r="M6" t="n">
         <v>1.0</v>
       </c>
       <c r="N6" t="n">
-        <v>297.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4114,13 +4114,13 @@
         <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>33.0</v>
+        <v>30.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -4132,19 +4132,19 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="J7" t="n">
-        <v>85.0</v>
+        <v>35.0</v>
       </c>
       <c r="K7" t="n">
         <v>0.33300000000000002</v>
       </c>
       <c r="L7" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>26</v>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="N7" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4155,40 +4155,40 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D8" t="n">
-        <v>673.0</v>
+        <v>810.0</v>
       </c>
       <c r="E8" t="n">
         <v>0.33300000000000002</v>
       </c>
       <c r="F8" t="n">
-        <v>580.0</v>
+        <v>600.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="H8" t="n">
-        <v>1090.0</v>
+        <v>960.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.66700000000000004</v>
       </c>
       <c r="J8" t="n">
-        <v>1145.0</v>
+        <v>1320.0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="L8" t="n">
-        <v>580.0</v>
+        <v>585.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="N8" t="n">
-        <v>570.0</v>
+        <v>667.0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4202,37 +4202,37 @@
         <v>1.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1283.0</v>
+        <v>1063.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>830.0</v>
+        <v>687.0</v>
       </c>
       <c r="G9" t="n">
         <v>1.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1573.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J9" t="n">
-        <v>1740.0</v>
+        <v>1730.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="L9" t="n">
-        <v>1395.0</v>
+        <v>987.0</v>
       </c>
       <c r="M9" t="n">
         <v>1.0</v>
       </c>
       <c r="N9" t="n">
-        <v>880.0</v>
+        <v>960.0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -4243,40 +4243,40 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D10" t="n">
-        <v>2675.0</v>
+        <v>2420.0</v>
       </c>
       <c r="E10" t="n">
         <v>0.33300000000000002</v>
       </c>
       <c r="F10" t="n">
-        <v>870.0</v>
+        <v>650.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.33300000000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>1750.0</v>
+        <v>1460.0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>2930.0</v>
+        <v>3243.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>26</v>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1330.0</v>
       </c>
       <c r="M10" t="n">
         <v>0.33300000000000002</v>
       </c>
       <c r="N10" t="n">
-        <v>1090.0</v>
+        <v>2340.0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -4287,40 +4287,40 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D11" t="n">
-        <v>400.0</v>
+        <v>335.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.33300000000000002</v>
+        <v>1.0</v>
       </c>
       <c r="F11" t="n">
-        <v>300.0</v>
+        <v>223.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.33300000000000002</v>
+        <v>1.0</v>
       </c>
       <c r="H11" t="n">
-        <v>290.0</v>
+        <v>443.0</v>
       </c>
       <c r="I11" t="n">
         <v>0.66700000000000004</v>
       </c>
       <c r="J11" t="n">
-        <v>760.0</v>
+        <v>545.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="L11" t="n">
-        <v>245.0</v>
+        <v>197.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="N11" t="n">
-        <v>435.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4334,37 +4334,37 @@
         <v>1.0</v>
       </c>
       <c r="D12" t="n">
-        <v>597.0</v>
+        <v>690.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
       </c>
       <c r="F12" t="n">
-        <v>413.0</v>
+        <v>467.0</v>
       </c>
       <c r="G12" t="n">
         <v>1.0</v>
       </c>
       <c r="H12" t="n">
-        <v>423.0</v>
+        <v>470.0</v>
       </c>
       <c r="I12" t="n">
         <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>473.0</v>
+        <v>457.0</v>
       </c>
       <c r="K12" t="n">
         <v>1.0</v>
       </c>
       <c r="L12" t="n">
-        <v>220.0</v>
+        <v>240.0</v>
       </c>
       <c r="M12" t="n">
         <v>1.0</v>
       </c>
       <c r="N12" t="n">
-        <v>550.0</v>
+        <v>483.0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -4378,37 +4378,37 @@
         <v>1.0</v>
       </c>
       <c r="D13" t="n">
-        <v>540.0</v>
+        <v>570.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
       </c>
       <c r="F13" t="n">
-        <v>427.0</v>
+        <v>373.0</v>
       </c>
       <c r="G13" t="n">
         <v>1.0</v>
       </c>
       <c r="H13" t="n">
-        <v>427.0</v>
+        <v>387.0</v>
       </c>
       <c r="I13" t="n">
         <v>1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>377.0</v>
+        <v>460.0</v>
       </c>
       <c r="K13" t="n">
         <v>1.0</v>
       </c>
       <c r="L13" t="n">
-        <v>240.0</v>
+        <v>267.0</v>
       </c>
       <c r="M13" t="n">
         <v>1.0</v>
       </c>
       <c r="N13" t="n">
-        <v>420.0</v>
+        <v>410.0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -4419,40 +4419,40 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.33300000000000002</v>
+        <v>1.0</v>
       </c>
       <c r="D14" t="n">
-        <v>910.0</v>
+        <v>843.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F14" t="n">
-        <v>580.0</v>
+        <v>350.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H14" t="n">
-        <v>580.0</v>
+        <v>440.0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="J14" t="n">
-        <v>620.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>26</v>
+        <v>1.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>330.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="N14" t="n">
-        <v>500.0</v>
+        <v>690.0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -4466,37 +4466,37 @@
         <v>1.0</v>
       </c>
       <c r="D15" t="n">
-        <v>9625.0</v>
+        <v>9858.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
       </c>
       <c r="F15" t="n">
-        <v>4492.0</v>
+        <v>4650.0</v>
       </c>
       <c r="G15" t="n">
         <v>1.0</v>
       </c>
       <c r="H15" t="n">
-        <v>4808.0</v>
+        <v>4950.0</v>
       </c>
       <c r="I15" t="n">
         <v>1.0</v>
       </c>
       <c r="J15" t="n">
-        <v>5175.0</v>
+        <v>5308.0</v>
       </c>
       <c r="K15" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="L15" t="n">
-        <v>1867.0</v>
+        <v>1925.0</v>
       </c>
       <c r="M15" t="n">
         <v>1.0</v>
       </c>
       <c r="N15" t="n">
-        <v>6425.0</v>
+        <v>6517.0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -4554,37 +4554,37 @@
         <v>1.0</v>
       </c>
       <c r="D17" t="n">
-        <v>6375.0</v>
+        <v>6267.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
       </c>
       <c r="F17" t="n">
-        <v>3083.0</v>
+        <v>2925.0</v>
       </c>
       <c r="G17" t="n">
         <v>1.0</v>
       </c>
       <c r="H17" t="n">
-        <v>3142.0</v>
+        <v>3342.0</v>
       </c>
       <c r="I17" t="n">
         <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>3583.0</v>
+        <v>3575.0</v>
       </c>
       <c r="K17" t="n">
         <v>1.0</v>
       </c>
       <c r="L17" t="n">
-        <v>1267.0</v>
+        <v>1325.0</v>
       </c>
       <c r="M17" t="n">
         <v>1.0</v>
       </c>
       <c r="N17" t="n">
-        <v>4108.0</v>
+        <v>4392.0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -4598,37 +4598,37 @@
         <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>6392.0</v>
+        <v>6067.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
       </c>
       <c r="F18" t="n">
-        <v>3383.0</v>
+        <v>3025.0</v>
       </c>
       <c r="G18" t="n">
         <v>1.0</v>
       </c>
       <c r="H18" t="n">
-        <v>3167.0</v>
+        <v>3283.0</v>
       </c>
       <c r="I18" t="n">
         <v>1.0</v>
       </c>
       <c r="J18" t="n">
-        <v>3450.0</v>
+        <v>3842.0</v>
       </c>
       <c r="K18" t="n">
         <v>1.0</v>
       </c>
       <c r="L18" t="n">
-        <v>1233.0</v>
+        <v>1150.0</v>
       </c>
       <c r="M18" t="n">
         <v>1.0</v>
       </c>
       <c r="N18" t="n">
-        <v>4233.0</v>
+        <v>3883.0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -4639,40 +4639,40 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="D19" t="n">
-        <v>162.0</v>
+        <v>292.0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F19" t="n">
+        <v>150.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H19" t="n">
-        <v>50.0</v>
+        <v>412.0</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>542.0</v>
+        <v>508.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="L19" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
       </c>
       <c r="M19" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="N19" t="n">
-        <v>200.0</v>
+        <v>367.0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -4683,10 +4683,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D20" t="n">
-        <v>16708.0</v>
+        <v>15812.0</v>
       </c>
       <c r="E20" t="n">
         <v>0.0</v>
@@ -4698,7 +4698,7 @@
         <v>1.0</v>
       </c>
       <c r="H20" t="n">
-        <v>18083.0</v>
+        <v>18842.0</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -4707,16 +4707,16 @@
         <v>26</v>
       </c>
       <c r="K20" t="n">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="L20" t="n">
-        <v>9925.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
       </c>
       <c r="M20" t="n">
-        <v>0.66700000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="N20" t="n">
-        <v>7825.0</v>
+        <v>10625.0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -4730,37 +4730,37 @@
         <v>1.0</v>
       </c>
       <c r="D21" t="n">
-        <v>16967.0</v>
+        <v>16842.0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.66700000000000004</v>
+        <v>1.0</v>
       </c>
       <c r="F21" t="n">
-        <v>6500.0</v>
+        <v>5858.0</v>
       </c>
       <c r="G21" t="n">
         <v>1.0</v>
       </c>
       <c r="H21" t="n">
-        <v>18883.0</v>
+        <v>15900.0</v>
       </c>
       <c r="I21" t="n">
         <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>18825.0</v>
+        <v>18058.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.33300000000000002</v>
+        <v>1.0</v>
       </c>
       <c r="L21" t="n">
-        <v>5400.0</v>
+        <v>5058.0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="N21" t="n">
-        <v>9667.0</v>
+        <v>8562.0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -4818,7 +4818,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="D23" t="n">
-        <v>6175.0</v>
+        <v>3950.0</v>
       </c>
       <c r="E23" t="n">
         <v>0.0</v>
@@ -4827,16 +4827,16 @@
         <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>26</v>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6200.0</v>
       </c>
       <c r="I23" t="n">
         <v>0.33300000000000002</v>
       </c>
       <c r="J23" t="n">
-        <v>12475.0</v>
+        <v>14225.0</v>
       </c>
       <c r="K23" t="n">
         <v>0.0</v>
@@ -4862,37 +4862,37 @@
         <v>1.0</v>
       </c>
       <c r="D24" t="n">
-        <v>8550.0</v>
+        <v>8208.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
       </c>
       <c r="F24" t="n">
-        <v>3725.0</v>
+        <v>3667.0</v>
       </c>
       <c r="G24" t="n">
         <v>1.0</v>
       </c>
       <c r="H24" t="n">
-        <v>4692.0</v>
+        <v>4700.0</v>
       </c>
       <c r="I24" t="n">
         <v>1.0</v>
       </c>
       <c r="J24" t="n">
-        <v>5342.0</v>
+        <v>5333.0</v>
       </c>
       <c r="K24" t="n">
         <v>1.0</v>
       </c>
       <c r="L24" t="n">
-        <v>1808.0</v>
+        <v>1833.0</v>
       </c>
       <c r="M24" t="n">
         <v>1.0</v>
       </c>
       <c r="N24" t="n">
-        <v>4792.0</v>
+        <v>5300.0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -4906,37 +4906,37 @@
         <v>1.0</v>
       </c>
       <c r="D25" t="n">
-        <v>6000.0</v>
+        <v>6117.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
       </c>
       <c r="F25" t="n">
-        <v>2825.0</v>
+        <v>3100.0</v>
       </c>
       <c r="G25" t="n">
         <v>1.0</v>
       </c>
       <c r="H25" t="n">
-        <v>2875.0</v>
+        <v>3050.0</v>
       </c>
       <c r="I25" t="n">
         <v>1.0</v>
       </c>
       <c r="J25" t="n">
-        <v>3292.0</v>
+        <v>3208.0</v>
       </c>
       <c r="K25" t="n">
         <v>1.0</v>
       </c>
       <c r="L25" t="n">
-        <v>1233.0</v>
+        <v>1183.0</v>
       </c>
       <c r="M25" t="n">
         <v>1.0</v>
       </c>
       <c r="N25" t="n">
-        <v>3942.0</v>
+        <v>4225.0</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -4947,10 +4947,10 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.33300000000000002</v>
+        <v>1.0</v>
       </c>
       <c r="D26" t="n">
-        <v>9275.0</v>
+        <v>18950.0</v>
       </c>
       <c r="E26" t="n">
         <v>0.0</v>
@@ -4962,13 +4962,13 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="H26" t="n">
-        <v>6850.0</v>
+        <v>9500.0</v>
       </c>
       <c r="I26" t="n">
         <v>0.66700000000000004</v>
       </c>
       <c r="J26" t="n">
-        <v>19538.0</v>
+        <v>16312.0</v>
       </c>
       <c r="K26" t="n">
         <v>0.0</v>
@@ -4977,10 +4977,10 @@
         <v>26</v>
       </c>
       <c r="M26" t="n">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="N26" t="n">
-        <v>6475.0</v>
+        <v>14275.0</v>
       </c>
     </row>
   </sheetData>
